--- a/graphs_manual_loans.xlsx
+++ b/graphs_manual_loans.xlsx
@@ -19,19 +19,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
+    <t>[3.902-3.905]</t>
+  </si>
+  <si>
     <t>[3.905-3.907]</t>
   </si>
   <si>
-    <t>[3.907-3.909]</t>
-  </si>
-  <si>
-    <t>[3.909-3.912]</t>
-  </si>
-  <si>
-    <t>[3.912-3.914]</t>
-  </si>
-  <si>
-    <t>[3.914-3.916]</t>
+    <t>[3.907-3.91]</t>
+  </si>
+  <si>
+    <t>[3.91-3.913]</t>
+  </si>
+  <si>
+    <t>[3.913-3.916]</t>
   </si>
   <si>
     <t>[3.916-3.918]</t>
@@ -40,37 +40,37 @@
     <t>[3.918-3.921]</t>
   </si>
   <si>
-    <t>[3.921-3.923]</t>
-  </si>
-  <si>
-    <t>[3.923-3.925]</t>
-  </si>
-  <si>
-    <t>[3.925-3.928]</t>
-  </si>
-  <si>
-    <t>[3.928-3.93]</t>
-  </si>
-  <si>
-    <t>[3.93-3.932]</t>
-  </si>
-  <si>
-    <t>[3.932-3.934]</t>
-  </si>
-  <si>
-    <t>[3.934-3.937]</t>
-  </si>
-  <si>
-    <t>[10.91-10.92]</t>
-  </si>
-  <si>
-    <t>[10.92-10.94]</t>
-  </si>
-  <si>
-    <t>[10.94-10.95]</t>
-  </si>
-  <si>
-    <t>[10.95-10.96]</t>
+    <t>[3.921-3.924]</t>
+  </si>
+  <si>
+    <t>[3.924-3.927]</t>
+  </si>
+  <si>
+    <t>[3.927-3.929]</t>
+  </si>
+  <si>
+    <t>[3.929-3.932]</t>
+  </si>
+  <si>
+    <t>[3.932-3.935]</t>
+  </si>
+  <si>
+    <t>[3.935-3.938]</t>
+  </si>
+  <si>
+    <t>[3.938-3.941]</t>
+  </si>
+  <si>
+    <t>[10.9-10.91]</t>
+  </si>
+  <si>
+    <t>[10.91-10.93]</t>
+  </si>
+  <si>
+    <t>[10.93-10.94]</t>
+  </si>
+  <si>
+    <t>[10.94-10.96]</t>
   </si>
   <si>
     <t>[10.96-10.97]</t>
@@ -85,10 +85,7 @@
     <t>[11.0-11.01]</t>
   </si>
   <si>
-    <t>[11.01-11.02]</t>
-  </si>
-  <si>
-    <t>[11.02-11.03]</t>
+    <t>[11.01-11.03]</t>
   </si>
   <si>
     <t>[11.03-11.04]</t>
@@ -103,46 +100,49 @@
     <t>[11.07-11.08]</t>
   </si>
   <si>
-    <t>[84.34-84.36]</t>
-  </si>
-  <si>
-    <t>[84.36-84.37]</t>
-  </si>
-  <si>
-    <t>[84.37-84.39]</t>
-  </si>
-  <si>
-    <t>[84.39-84.4]</t>
-  </si>
-  <si>
-    <t>[84.4-84.42]</t>
-  </si>
-  <si>
-    <t>[84.42-84.43]</t>
-  </si>
-  <si>
-    <t>[84.43-84.45]</t>
-  </si>
-  <si>
-    <t>[84.45-84.46]</t>
+    <t>[11.08-11.1]</t>
+  </si>
+  <si>
+    <t>[84.42-84.44]</t>
+  </si>
+  <si>
+    <t>[84.44-84.46]</t>
   </si>
   <si>
     <t>[84.46-84.48]</t>
   </si>
   <si>
-    <t>[84.48-84.49]</t>
-  </si>
-  <si>
-    <t>[84.49-84.51]</t>
-  </si>
-  <si>
-    <t>[84.51-84.52]</t>
-  </si>
-  <si>
-    <t>[84.52-84.54]</t>
-  </si>
-  <si>
-    <t>[84.54-84.55]</t>
+    <t>[84.48-84.5]</t>
+  </si>
+  <si>
+    <t>[84.5-84.52]</t>
+  </si>
+  <si>
+    <t>[84.52-84.55]</t>
+  </si>
+  <si>
+    <t>[84.55-84.57]</t>
+  </si>
+  <si>
+    <t>[84.57-84.59]</t>
+  </si>
+  <si>
+    <t>[84.59-84.61]</t>
+  </si>
+  <si>
+    <t>[84.61-84.63]</t>
+  </si>
+  <si>
+    <t>[84.63-84.65]</t>
+  </si>
+  <si>
+    <t>[84.65-84.67]</t>
+  </si>
+  <si>
+    <t>[84.67-84.69]</t>
+  </si>
+  <si>
+    <t>[84.69-84.71]</t>
   </si>
 </sst>
 </file>
@@ -248,22 +248,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28</c:v>
@@ -293,13 +293,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -435,19 +435,19 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>[3.902-3.905]</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>[3.905-3.907]</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>[3.907-3.909]</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.909-3.912]</c:v>
+                  <c:v>[3.907-3.91]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.912-3.914]</c:v>
+                  <c:v>[3.91-3.913]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.914-3.916]</c:v>
+                  <c:v>[3.913-3.916]</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>[3.916-3.918]</c:v>
@@ -456,25 +456,25 @@
                   <c:v>[3.918-3.921]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.921-3.923]</c:v>
+                  <c:v>[3.921-3.924]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.923-3.925]</c:v>
+                  <c:v>[3.924-3.927]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.925-3.928]</c:v>
+                  <c:v>[3.927-3.929]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.928-3.93]</c:v>
+                  <c:v>[3.929-3.932]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.93-3.932]</c:v>
+                  <c:v>[3.932-3.935]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[3.932-3.934]</c:v>
+                  <c:v>[3.935-3.938]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[3.934-3.937]</c:v>
+                  <c:v>[3.938-3.941]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -495,28 +495,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -662,16 +662,16 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[10.91-10.92]</c:v>
+                  <c:v>[10.9-10.91]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[10.92-10.94]</c:v>
+                  <c:v>[10.91-10.93]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[10.94-10.95]</c:v>
+                  <c:v>[10.93-10.94]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[10.95-10.96]</c:v>
+                  <c:v>[10.94-10.96]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>[10.96-10.97]</c:v>
@@ -686,22 +686,22 @@
                   <c:v>[11.0-11.01]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[11.01-11.02]</c:v>
+                  <c:v>[11.01-11.03]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[11.02-11.03]</c:v>
+                  <c:v>[11.03-11.04]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[11.03-11.04]</c:v>
+                  <c:v>[11.04-11.05]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[11.04-11.05]</c:v>
+                  <c:v>[11.05-11.07]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[11.05-11.07]</c:v>
+                  <c:v>[11.07-11.08]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[11.07-11.08]</c:v>
+                  <c:v>[11.08-11.1]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -722,28 +722,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -889,46 +889,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[84.34-84.36]</c:v>
+                  <c:v>[84.42-84.44]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.36-84.37]</c:v>
+                  <c:v>[84.44-84.46]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.37-84.39]</c:v>
+                  <c:v>[84.46-84.48]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.39-84.4]</c:v>
+                  <c:v>[84.48-84.5]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.4-84.42]</c:v>
+                  <c:v>[84.5-84.52]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.42-84.43]</c:v>
+                  <c:v>[84.52-84.55]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.43-84.45]</c:v>
+                  <c:v>[84.55-84.57]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.45-84.46]</c:v>
+                  <c:v>[84.57-84.59]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.46-84.48]</c:v>
+                  <c:v>[84.59-84.61]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.48-84.49]</c:v>
+                  <c:v>[84.61-84.63]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.49-84.51]</c:v>
+                  <c:v>[84.63-84.65]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.51-84.52]</c:v>
+                  <c:v>[84.65-84.67]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.52-84.54]</c:v>
+                  <c:v>[84.67-84.69]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.54-84.55]</c:v>
+                  <c:v>[84.69-84.71]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -955,7 +955,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -967,7 +967,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1509,7 +1509,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1544,15 +1544,15 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1753,7 +1753,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1761,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
